--- a/trunk/_svn-document/CONG VIEC.xlsx
+++ b/trunk/_svn-document/CONG VIEC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>UsecaseModel</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>View product detail chua day du</t>
+  </si>
+  <si>
+    <t>usecase quản lý hóa đơn</t>
+  </si>
+  <si>
+    <t>test Ngân Lượng, dong a</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,6 +1216,16 @@
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/_svn-document/CONG VIEC.xlsx
+++ b/trunk/_svn-document/CONG VIEC.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="cong viec thuc hien" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="hhd" sheetId="3" r:id="rId3"/>
+    <sheet name="nhom viec" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
   <si>
     <t>UsecaseModel</t>
   </si>
@@ -229,13 +230,99 @@
   </si>
   <si>
     <t>test Ngân Lượng, dong a</t>
+  </si>
+  <si>
+    <t>công việc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngày hết hạn </t>
+  </si>
+  <si>
+    <t>thời gian
+ còn lại</t>
+  </si>
+  <si>
+    <t>mô tả</t>
+  </si>
+  <si>
+    <t>1.2 Xác định yêu cầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yêu cầu chức năng và phi chức năng cho hệ thống dự kiến phát triển. </t>
+  </si>
+  <si>
+    <t>2.1 Thiết kế chức năng</t>
+  </si>
+  <si>
+    <t>Chốt lại danh mục các chức năng của dự án. Phân loại, gán mức độ ưu tiên và lập ma trận theo dõi trạng thái cho từng chức năng</t>
+  </si>
+  <si>
+    <t>2.2 Thiết kế dữ liệu</t>
+  </si>
+  <si>
+    <t>Thiết kế cơ sở dữ liệu đáp ứng các nhóm chức năng quan trọng cần ưu tiên phát triển của dự án (ERD)</t>
+  </si>
+  <si>
+    <t>2.3 Thiết kế giao diện</t>
+  </si>
+  <si>
+    <t>Lên ý tưởng giao diện cho hệ thống
+Danh sách các màn hình
+Sơ đồ liên kết các màn hinh, Sitemap
+Layout chung cho hệ thống
+Layout từng màn hình riêng biệt</t>
+  </si>
+  <si>
+    <t>3.1 Chuẩn bị môi trường phát triển localhost</t>
+  </si>
+  <si>
+    <t>Mục đích để test nhanh trước khi upload nội dung thay đổi lên host thực dùng chung</t>
+  </si>
+  <si>
+    <t>3.2 Viết code và kiểm tra lỗi</t>
+  </si>
+  <si>
+    <t>Viết code và kiểm tra lỗi mức unit &amp; hệ thống</t>
+  </si>
+  <si>
+    <t>3.3 Kiểm soát và khắc phục lỗi</t>
+  </si>
+  <si>
+    <t>Kiểm thử, sử dụng các công cụ kiểm soát lỗi cộng tác</t>
+  </si>
+  <si>
+    <t>Luận Văn: Đấu giá trực tuyến</t>
+  </si>
+  <si>
+    <t>thủ tục: nộp phiếu đăng ký làm luận văn</t>
+  </si>
+  <si>
+    <t>thủ tục: chuẩn bị môi trường cộng tác</t>
+  </si>
+  <si>
+    <t>Chuẩn bị chỗ host, công cụ kiểm soát lỗi,....</t>
+  </si>
+  <si>
+    <t>Đài: lưu ý mã req và uc_c là giống nhau</t>
+  </si>
+  <si>
+    <t>stt</t>
+  </si>
+  <si>
+    <t>làm file hướng dẫn mở shop như nava</t>
+  </si>
+  <si>
+    <t>làm hướng dẫn feedback cho khách hàng dựa trên feedback của ebay</t>
+  </si>
+  <si>
+    <t>lưu ý trong file giao diện khi copy vào file LuậnVăn ta phải đánh stt hình</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +333,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -393,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,6 +567,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,6 +601,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7391400" y="200025"/>
+          <a:ext cx="4000500" cy="2326199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8020050" y="2657475"/>
+          <a:ext cx="2190750" cy="2752725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1067,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1244,14 +1482,231 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="73.5703125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="36">
+        <v>41098</v>
+      </c>
+      <c r="C6" s="37">
+        <f ca="1">B6-TODAY()</f>
+        <v>-28</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="36">
+        <v>41122</v>
+      </c>
+      <c r="C7" s="37">
+        <f t="shared" ref="C7:C15" ca="1" si="0">B7-TODAY()</f>
+        <v>-4</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="36">
+        <v>41136</v>
+      </c>
+      <c r="C8" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="36">
+        <v>41151</v>
+      </c>
+      <c r="C9" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="36">
+        <v>41122</v>
+      </c>
+      <c r="C10" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="36">
+        <v>41214</v>
+      </c>
+      <c r="C11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="36">
+        <v>41243</v>
+      </c>
+      <c r="C12" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="31">
+        <v>41101</v>
+      </c>
+      <c r="C14" s="32">
+        <f t="shared" ca="1" si="0"/>
+        <v>-25</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="31">
+        <v>41105</v>
+      </c>
+      <c r="C15" s="32">
+        <f t="shared" ca="1" si="0"/>
+        <v>-21</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/_svn-document/CONG VIEC.xlsx
+++ b/trunk/_svn-document/CONG VIEC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>UsecaseModel</t>
   </si>
@@ -316,6 +316,18 @@
   </si>
   <si>
     <t>lưu ý trong file giao diện khi copy vào file LuậnVăn ta phải đánh stt hình</t>
+  </si>
+  <si>
+    <t>Gửi tuấn</t>
+  </si>
+  <si>
+    <t>toàn bộ giao diện chưa nộp cho thầy đâu, hạn tới 30/08 lận đó</t>
+  </si>
+  <si>
+    <t>phần embed hay đó, nếu bạn làm được thì mô tả giao diện cho Đài nha</t>
+  </si>
+  <si>
+    <t>mô tả phần quản lý của Admin (để Đài làm giao diện)</t>
   </si>
 </sst>
 </file>
@@ -526,48 +538,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -588,6 +558,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,19 +1034,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1112,19 +1124,19 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="G11" s="14" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="G11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1270,13 +1282,13 @@
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1303,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,65 +1345,65 @@
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="26" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="26" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
       <c r="E6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -1464,6 +1476,26 @@
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1499,7 +1531,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="24" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1507,12 +1539,12 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="24" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1532,178 +1564,178 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="73.5703125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="30.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="73.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="22">
         <v>41098</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="23">
         <f ca="1">B6-TODAY()</f>
         <v>-28</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="22">
         <v>41122</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="23">
         <f t="shared" ref="C7:C15" ca="1" si="0">B7-TODAY()</f>
         <v>-4</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="22">
         <v>41136</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="21" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="22">
         <v>41151</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="22">
         <v>41122</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>-4</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="21" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="22">
         <v>41214</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>88</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="22">
         <v>41243</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>117</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="17">
         <v>41101</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="18">
         <f t="shared" ca="1" si="0"/>
         <v>-25</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="30" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="17">
         <v>41105</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="18">
         <f t="shared" ca="1" si="0"/>
         <v>-21</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/_svn-document/CONG VIEC.xlsx
+++ b/trunk/_svn-document/CONG VIEC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
   <si>
     <t>UsecaseModel</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>mô tả phần quản lý của Admin (để Đài làm giao diện)</t>
+  </si>
+  <si>
+    <t>lưu ý: admin qui định kích thước banner</t>
+  </si>
+  <si>
+    <t>qui định gói dịch vụ</t>
+  </si>
+  <si>
+    <t>admin có quyền xóa  user, sản phẩm, shop vi phạm</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1514,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,6 +1555,21 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/_svn-document/CONG VIEC.xlsx
+++ b/trunk/_svn-document/CONG VIEC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
   <si>
     <t>UsecaseModel</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>admin có quyền xóa  user, sản phẩm, shop vi phạm</t>
+  </si>
+  <si>
+    <t>bộ màu sắc ngôi sao</t>
+  </si>
+  <si>
+    <t>gd QL - SanPham 05 (xem sửa thông tin sp đang đấu giá) - thực tế khi code ko phải làm mất tác dụng thanh tab "mo ta chi tiet" mà làm mất tác dụng nút lưu ở tab đó</t>
   </si>
 </sst>
 </file>
@@ -628,16 +634,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>49724</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -661,7 +667,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7391400" y="200025"/>
+          <a:off x="12211050" y="428625"/>
           <a:ext cx="4000500" cy="2326199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -683,16 +689,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -716,7 +722,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8020050" y="2657475"/>
+          <a:off x="12915900" y="2857500"/>
           <a:ext cx="2190750" cy="2752725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1326,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1523,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,22 +1559,91 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" s="24" t="s">
         <v>96</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>103</v>
       </c>
     </row>

--- a/trunk/_svn-document/CONG VIEC.xlsx
+++ b/trunk/_svn-document/CONG VIEC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="330" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
   <si>
     <t>UsecaseModel</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>Các câu hỏi</t>
-  </si>
-  <si>
-    <t>Shop sau khi mở sản phẩm sẽ hiển thị thế nào</t>
   </si>
   <si>
     <t>Thống nhất FeedBack requirements</t>
@@ -343,6 +340,14 @@
   </si>
   <si>
     <t>gd QL - SanPham 05 (xem sửa thông tin sp đang đấu giá) - thực tế khi code ko phải làm mất tác dụng thanh tab "mo ta chi tiet" mà làm mất tác dụng nút lưu ở tab đó</t>
+  </si>
+  <si>
+    <t>(Xong)Shop sau khi mở sản phẩm sẽ hiển thị thế nào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loại bỏ sp trong các mục lọc sp &lt;&lt;sản phẩm Top, sp ... để tốt hơn cho buyer&gt;&gt;, nhưng tạm thời có vẫn còn trong danh sách sản phẩm.
+Cập nhật trang Xem chi tiết sản phẩm. cụ thể  thay thế texbox và button Đăt bid thành dòng thông báo người chiến thắng trong phiên đấu giá này. Ngay dưới hiển thị một danh sách 10 người đặt giá cao nhất.
+</t>
   </si>
 </sst>
 </file>
@@ -522,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -615,6 +620,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1330,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,73 +1456,145 @@
         <v>60</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="E24" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>100</v>
-      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="E24:I34"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="A4:D6"/>
     <mergeCell ref="A3:D3"/>
@@ -1531,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1539,7 +1619,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1547,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1555,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1571,7 +1651,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1579,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,17 +1714,17 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1673,126 +1753,126 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="22">
         <v>41098</v>
       </c>
       <c r="C6" s="23">
         <f ca="1">B6-TODAY()</f>
-        <v>-28</v>
+        <v>-35</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="22">
         <v>41122</v>
       </c>
       <c r="C7" s="23">
         <f t="shared" ref="C7:C15" ca="1" si="0">B7-TODAY()</f>
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="22">
         <v>41136</v>
       </c>
       <c r="C8" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="22">
         <v>41151</v>
       </c>
       <c r="C9" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="22">
         <v>41122</v>
       </c>
       <c r="C10" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="22">
         <v>41214</v>
       </c>
       <c r="C11" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="22">
         <v>41243</v>
       </c>
       <c r="C12" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1801,14 +1881,14 @@
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="17">
         <v>41101</v>
       </c>
       <c r="C14" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>-25</v>
+        <v>-32</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="16" t="s">
@@ -1817,22 +1897,22 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="17">
         <v>41105</v>
       </c>
       <c r="C15" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>-21</v>
+        <v>-28</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="16"/>
     </row>
